--- a/ProjectBase/Design/Pack/图片字体.xlsx
+++ b/ProjectBase/Design/Pack/图片字体.xlsx
@@ -42,10 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单个文字尺寸是否要整理成一样，长短文字中文字间间隔会看起来一致</t>
-  </si>
-  <si>
     <t>输出字体的路径，不填则和文字图片路径一致</t>
+  </si>
+  <si>
+    <t>0:文字高度相等 / 1:文字宽高都相等</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">

--- a/ProjectBase/Design/Pack/图片字体.xlsx
+++ b/ProjectBase/Design/Pack/图片字体.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>文字图片</t>
   </si>
@@ -46,6 +46,17 @@
   </si>
   <si>
     <t>0:文字高度相等 / 1:文字宽高都相等</t>
+  </si>
+  <si>
+    <t>两个文字间的间隔像素值，类似于\"法\"字，偏旁与文字挨得比较近，文字间隔应该取大一点，不填默认为2像素</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +429,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -432,8 +446,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -446,11 +463,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
